--- a/data/excel/Historical_collections_deceive.xlsx
+++ b/data/excel/Historical_collections_deceive.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\R_project_verbs_of_deceiving\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\daten.uni-bamberg.de\Aufgabenbezogen_M\eng-ling\Deceive-type verbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5114,7 +5114,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,7 +6341,7 @@
         <v>1576</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>330</v>
